--- a/chengww_wenjian_12_weight.xlsx
+++ b/chengww_wenjian_12_weight.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WangBin-Mac/Cheng/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="920" yWindow="440" windowWidth="27880" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -48,15 +56,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -64,13 +69,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -111,12 +116,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -137,7 +143,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -150,38 +156,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:areaChart>
@@ -214,157 +189,157 @@
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$51</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>41305.000000057902</c:v>
+                  <c:v>41305.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41333.000000057902</c:v>
+                  <c:v>41333.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41362.000000057902</c:v>
+                  <c:v>41362.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41390.000000057902</c:v>
+                  <c:v>41390.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41425.000000057902</c:v>
+                  <c:v>41425.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41453.000000057902</c:v>
+                  <c:v>41453.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41486.000000057902</c:v>
+                  <c:v>41486.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41516.000000057902</c:v>
+                  <c:v>41516.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41547.000000057902</c:v>
+                  <c:v>41547.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41578.000000057902</c:v>
+                  <c:v>41578.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41607.000000057902</c:v>
+                  <c:v>41607.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41639.000000057902</c:v>
+                  <c:v>41639.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41669.000000057902</c:v>
+                  <c:v>41669.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41698.000000057902</c:v>
+                  <c:v>41698.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41729.000000057902</c:v>
+                  <c:v>41729.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41759.000000057902</c:v>
+                  <c:v>41759.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41789.000000057902</c:v>
+                  <c:v>41789.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41820.000000057902</c:v>
+                  <c:v>41820.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41851.000000057902</c:v>
+                  <c:v>41851.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41880.000000057902</c:v>
+                  <c:v>41880.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41912.000000057902</c:v>
+                  <c:v>41912.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41943.000000057902</c:v>
+                  <c:v>41943.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41971.000000057902</c:v>
+                  <c:v>41971.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42004.000000057902</c:v>
+                  <c:v>42004.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42034.000000057902</c:v>
+                  <c:v>42034.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42062.000000057902</c:v>
+                  <c:v>42062.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42094.000000057902</c:v>
+                  <c:v>42094.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42124.000000057902</c:v>
+                  <c:v>42124.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42153.000000057902</c:v>
+                  <c:v>42153.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42185.000000057902</c:v>
+                  <c:v>42185.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42216.000000057902</c:v>
+                  <c:v>42216.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42247.000000057902</c:v>
+                  <c:v>42247.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42277.000000057902</c:v>
+                  <c:v>42277.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42307.000000057902</c:v>
+                  <c:v>42307.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42338.000000057902</c:v>
+                  <c:v>42338.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42369.000000057902</c:v>
+                  <c:v>42369.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42398.000000057902</c:v>
+                  <c:v>42398.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42429.000000057902</c:v>
+                  <c:v>42429.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42460.000000057902</c:v>
+                  <c:v>42460.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42489.000000057902</c:v>
+                  <c:v>42489.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42521.000000057902</c:v>
+                  <c:v>42521.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42551.000000057902</c:v>
+                  <c:v>42551.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42580.000000057902</c:v>
+                  <c:v>42580.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42613.000000057902</c:v>
+                  <c:v>42613.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42643.000000057902</c:v>
+                  <c:v>42643.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42674.000000057902</c:v>
+                  <c:v>42674.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42704.000000057902</c:v>
+                  <c:v>42704.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42734.000000057902</c:v>
+                  <c:v>42734.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42761.000000057902</c:v>
+                  <c:v>42761.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42794.000000057902</c:v>
+                  <c:v>42794.0000000579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -376,61 +351,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.14911609018229099</c:v>
+                  <c:v>0.149116090182291</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13161529039481101</c:v>
+                  <c:v>0.131615290394811</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.111139754266788</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12948503898024399</c:v>
+                  <c:v>0.129485038980244</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.105567474060291</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13254443480981101</c:v>
+                  <c:v>0.132544434809811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9349264406501201E-16</c:v>
+                  <c:v>1.93492644065012E-16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18986905965513301</c:v>
+                  <c:v>0.189869059655133</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.137408743368751</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26093458477610898</c:v>
+                  <c:v>0.260934584776109</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.34124063685834999</c:v>
+                  <c:v>0.34124063685835</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.27548423450159099</c:v>
+                  <c:v>0.275484234501591</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.25767823476440599</c:v>
+                  <c:v>0.257678234764406</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.21017155848669999</c:v>
+                  <c:v>0.2101715584867</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.392577526813916</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.40453948710940002</c:v>
+                  <c:v>0.4045394871094</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.2280069238413004E-2</c:v>
+                  <c:v>0.092280069238413</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.18906457625863199</c:v>
+                  <c:v>0.189064576258632</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.104397750204034</c:v>
@@ -439,46 +414,46 @@
                   <c:v>0.209204812826918</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.30060266254503998</c:v>
+                  <c:v>0.30060266254504</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.325486834718972</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.19402031003647199</c:v>
+                  <c:v>0.194020310036472</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.11403428572388501</c:v>
+                  <c:v>0.114034285723885</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.4411213325473305E-2</c:v>
+                  <c:v>0.0744112133254733</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.5457410260800399E-19</c:v>
+                  <c:v>3.54574102608004E-19</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.40496043666432902</c:v>
+                  <c:v>0.404960436664329</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.12609772355395399</c:v>
+                  <c:v>0.126097723553954</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.10549202538333501</c:v>
+                  <c:v>0.105492025383335</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.100928184614291</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.8140195942886504E-2</c:v>
+                  <c:v>0.0981401959428865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.0669451218278796E-2</c:v>
+                  <c:v>0.0906694512182788</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.43352555765481099</c:v>
+                  <c:v>0.433525557654811</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.119449428217434</c:v>
@@ -490,7 +465,7 @@
                   <c:v>0.110683330473922</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.12190351333147301</c:v>
+                  <c:v>0.121903513331473</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.156049670795431</c:v>
@@ -499,28 +474,28 @@
                   <c:v>0.117462292396596</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.16015518580744301</c:v>
+                  <c:v>0.160155185807443</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.115530670150689</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.16676419556747701</c:v>
+                  <c:v>0.166764195567477</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.100848440136852</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.6583526609816102E-17</c:v>
+                  <c:v>1.65835266098161E-17</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.117435816587105</c:v>
@@ -528,7 +503,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-06CF-4E7B-91B2-25C5E73A6982}"/>
             </c:ext>
@@ -561,157 +536,157 @@
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$51</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>41305.000000057902</c:v>
+                  <c:v>41305.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41333.000000057902</c:v>
+                  <c:v>41333.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41362.000000057902</c:v>
+                  <c:v>41362.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41390.000000057902</c:v>
+                  <c:v>41390.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41425.000000057902</c:v>
+                  <c:v>41425.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41453.000000057902</c:v>
+                  <c:v>41453.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41486.000000057902</c:v>
+                  <c:v>41486.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41516.000000057902</c:v>
+                  <c:v>41516.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41547.000000057902</c:v>
+                  <c:v>41547.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41578.000000057902</c:v>
+                  <c:v>41578.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41607.000000057902</c:v>
+                  <c:v>41607.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41639.000000057902</c:v>
+                  <c:v>41639.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41669.000000057902</c:v>
+                  <c:v>41669.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41698.000000057902</c:v>
+                  <c:v>41698.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41729.000000057902</c:v>
+                  <c:v>41729.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41759.000000057902</c:v>
+                  <c:v>41759.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41789.000000057902</c:v>
+                  <c:v>41789.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41820.000000057902</c:v>
+                  <c:v>41820.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41851.000000057902</c:v>
+                  <c:v>41851.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41880.000000057902</c:v>
+                  <c:v>41880.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41912.000000057902</c:v>
+                  <c:v>41912.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41943.000000057902</c:v>
+                  <c:v>41943.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41971.000000057902</c:v>
+                  <c:v>41971.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42004.000000057902</c:v>
+                  <c:v>42004.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42034.000000057902</c:v>
+                  <c:v>42034.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42062.000000057902</c:v>
+                  <c:v>42062.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42094.000000057902</c:v>
+                  <c:v>42094.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42124.000000057902</c:v>
+                  <c:v>42124.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42153.000000057902</c:v>
+                  <c:v>42153.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42185.000000057902</c:v>
+                  <c:v>42185.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42216.000000057902</c:v>
+                  <c:v>42216.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42247.000000057902</c:v>
+                  <c:v>42247.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42277.000000057902</c:v>
+                  <c:v>42277.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42307.000000057902</c:v>
+                  <c:v>42307.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42338.000000057902</c:v>
+                  <c:v>42338.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42369.000000057902</c:v>
+                  <c:v>42369.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42398.000000057902</c:v>
+                  <c:v>42398.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42429.000000057902</c:v>
+                  <c:v>42429.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42460.000000057902</c:v>
+                  <c:v>42460.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42489.000000057902</c:v>
+                  <c:v>42489.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42521.000000057902</c:v>
+                  <c:v>42521.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42551.000000057902</c:v>
+                  <c:v>42551.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42580.000000057902</c:v>
+                  <c:v>42580.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42613.000000057902</c:v>
+                  <c:v>42613.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42643.000000057902</c:v>
+                  <c:v>42643.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42674.000000057902</c:v>
+                  <c:v>42674.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42704.000000057902</c:v>
+                  <c:v>42704.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42734.000000057902</c:v>
+                  <c:v>42734.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42761.000000057902</c:v>
+                  <c:v>42761.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42794.000000057902</c:v>
+                  <c:v>42794.0000000579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -723,31 +698,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>9.0264710899365302E-2</c:v>
+                  <c:v>0.0902647108993653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9458657419705193E-2</c:v>
+                  <c:v>0.0994586574197052</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1513647186201294E-2</c:v>
+                  <c:v>0.0915136471862013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2401040367410694E-2</c:v>
+                  <c:v>0.0824010403674107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1239186408869906E-2</c:v>
+                  <c:v>0.0712391864088699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7155995246977596E-2</c:v>
+                  <c:v>0.0771559952469776</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0175273842216302E-2</c:v>
+                  <c:v>0.0801752738422163</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.110931148280476</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.7551502403212406E-2</c:v>
+                  <c:v>0.0975515024032124</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.11979638424095</c:v>
@@ -756,34 +731,34 @@
                   <c:v>0.248796477790758</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16847843499630499</c:v>
+                  <c:v>0.168478434996305</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.21544744728264401</c:v>
+                  <c:v>0.215447447282644</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.18651029880189601</c:v>
+                  <c:v>0.186510298801896</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.19744455102098199</c:v>
+                  <c:v>0.197444551020982</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.176953468757369</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13214013735511801</c:v>
+                  <c:v>0.132140137355118</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.13693846447699901</c:v>
+                  <c:v>0.136938464476999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.18517915863766801</c:v>
+                  <c:v>0.185179158637668</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12504020893274301</c:v>
+                  <c:v>0.125040208932743</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.11577469888638001</c:v>
+                  <c:v>0.11577469888638</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.12863862802425</c:v>
@@ -792,13 +767,13 @@
                   <c:v>0.180818842575689</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.7352789134897394E-2</c:v>
+                  <c:v>0.0973527891348974</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.122279756057747</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.6394697073569097E-2</c:v>
+                  <c:v>0.0963946970735691</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.117280038716313</c:v>
@@ -810,7 +785,7 @@
                   <c:v>0.132051899473104</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.12555957351247099</c:v>
+                  <c:v>0.125559573512471</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.11014833791547</c:v>
@@ -819,37 +794,37 @@
                   <c:v>0.104557227896551</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.8839508762742395E-2</c:v>
+                  <c:v>0.0888395087627424</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.1115316253857506E-2</c:v>
+                  <c:v>0.0911153162538575</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.156957918835951</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.7135937274908199E-2</c:v>
+                  <c:v>0.0971359372749082</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.10718147901519701</c:v>
+                  <c:v>0.107181479015197</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.107781680560579</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.1389506106087801E-2</c:v>
+                  <c:v>0.0913895061060878</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.6712414938790695E-2</c:v>
+                  <c:v>0.0967124149387907</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.3732386627804698E-2</c:v>
+                  <c:v>0.0937323866278047</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.8255003744694999E-2</c:v>
+                  <c:v>0.088255003744695</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.10005160483296301</c:v>
+                  <c:v>0.100051604832963</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.114680346327069</c:v>
@@ -867,7 +842,7 @@
                   <c:v>0.123059732286577</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.13367081912818399</c:v>
+                  <c:v>0.133670819128184</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.151720917073114</c:v>
@@ -875,7 +850,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-06CF-4E7B-91B2-25C5E73A6982}"/>
             </c:ext>
@@ -908,157 +883,157 @@
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$51</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>41305.000000057902</c:v>
+                  <c:v>41305.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41333.000000057902</c:v>
+                  <c:v>41333.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41362.000000057902</c:v>
+                  <c:v>41362.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41390.000000057902</c:v>
+                  <c:v>41390.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41425.000000057902</c:v>
+                  <c:v>41425.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41453.000000057902</c:v>
+                  <c:v>41453.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41486.000000057902</c:v>
+                  <c:v>41486.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41516.000000057902</c:v>
+                  <c:v>41516.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41547.000000057902</c:v>
+                  <c:v>41547.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41578.000000057902</c:v>
+                  <c:v>41578.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41607.000000057902</c:v>
+                  <c:v>41607.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41639.000000057902</c:v>
+                  <c:v>41639.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41669.000000057902</c:v>
+                  <c:v>41669.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41698.000000057902</c:v>
+                  <c:v>41698.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41729.000000057902</c:v>
+                  <c:v>41729.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41759.000000057902</c:v>
+                  <c:v>41759.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41789.000000057902</c:v>
+                  <c:v>41789.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41820.000000057902</c:v>
+                  <c:v>41820.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41851.000000057902</c:v>
+                  <c:v>41851.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41880.000000057902</c:v>
+                  <c:v>41880.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41912.000000057902</c:v>
+                  <c:v>41912.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41943.000000057902</c:v>
+                  <c:v>41943.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41971.000000057902</c:v>
+                  <c:v>41971.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42004.000000057902</c:v>
+                  <c:v>42004.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42034.000000057902</c:v>
+                  <c:v>42034.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42062.000000057902</c:v>
+                  <c:v>42062.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42094.000000057902</c:v>
+                  <c:v>42094.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42124.000000057902</c:v>
+                  <c:v>42124.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42153.000000057902</c:v>
+                  <c:v>42153.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42185.000000057902</c:v>
+                  <c:v>42185.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42216.000000057902</c:v>
+                  <c:v>42216.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42247.000000057902</c:v>
+                  <c:v>42247.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42277.000000057902</c:v>
+                  <c:v>42277.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42307.000000057902</c:v>
+                  <c:v>42307.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42338.000000057902</c:v>
+                  <c:v>42338.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42369.000000057902</c:v>
+                  <c:v>42369.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42398.000000057902</c:v>
+                  <c:v>42398.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42429.000000057902</c:v>
+                  <c:v>42429.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42460.000000057902</c:v>
+                  <c:v>42460.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42489.000000057902</c:v>
+                  <c:v>42489.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42521.000000057902</c:v>
+                  <c:v>42521.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42551.000000057902</c:v>
+                  <c:v>42551.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42580.000000057902</c:v>
+                  <c:v>42580.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42613.000000057902</c:v>
+                  <c:v>42613.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42643.000000057902</c:v>
+                  <c:v>42643.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42674.000000057902</c:v>
+                  <c:v>42674.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42704.000000057902</c:v>
+                  <c:v>42704.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42734.000000057902</c:v>
+                  <c:v>42734.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42761.000000057902</c:v>
+                  <c:v>42761.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42794.000000057902</c:v>
+                  <c:v>42794.0000000579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1070,46 +1045,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>5.1635478546431302E-2</c:v>
+                  <c:v>0.0516354785464313</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.27804579950392E-2</c:v>
+                  <c:v>0.0527804579950392</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0197366830544203E-2</c:v>
+                  <c:v>0.0501973668305442</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7505376780331997E-2</c:v>
+                  <c:v>0.057505376780332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8252460920109E-2</c:v>
+                  <c:v>0.048252460920109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9039075005519399E-2</c:v>
+                  <c:v>0.0490390750055194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2289210561768397E-2</c:v>
+                  <c:v>0.0822892105617684</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1869561127775197E-2</c:v>
+                  <c:v>0.0618695611277752</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4611721748726097E-2</c:v>
+                  <c:v>0.0546117217487261</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.2301665105040597E-2</c:v>
+                  <c:v>0.0823016651050406</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.107170574318526</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.2733270511672101E-2</c:v>
+                  <c:v>0.0627332705116721</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4480739942314301E-2</c:v>
+                  <c:v>0.0144807399423143</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2218262786079E-2</c:v>
+                  <c:v>0.022218262786079</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.02338520687265E-17</c:v>
@@ -1118,111 +1093,111 @@
                   <c:v>1.27613983833333E-17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.7374689329410398E-3</c:v>
+                  <c:v>0.00373746893294104</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.3745178231061099E-3</c:v>
+                  <c:v>0.00937451782310611</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.82893974280117E-2</c:v>
+                  <c:v>0.0282893974280117</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.74944507729882E-2</c:v>
+                  <c:v>0.0374944507729882</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5552585708530401E-2</c:v>
+                  <c:v>0.0455525857085304</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.1045453010790902E-2</c:v>
+                  <c:v>0.0610454530107909</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.5129773479140601E-17</c:v>
+                  <c:v>2.51297734791406E-17</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.0840022685497799E-2</c:v>
+                  <c:v>0.0308400226854978</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.5543236944584201E-2</c:v>
+                  <c:v>0.0355432369445842</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.8249757487666901E-2</c:v>
+                  <c:v>0.0682497574876669</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.3290176675198706E-2</c:v>
+                  <c:v>0.0632901766751987</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.0181942648214594E-2</c:v>
+                  <c:v>0.0901819426482146</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.3732271093522196E-2</c:v>
+                  <c:v>0.0937322710935222</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.3405838542219598E-2</c:v>
+                  <c:v>0.0434058385422196</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.0886949637912902E-2</c:v>
+                  <c:v>0.0408869496379129</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.6809637333178102E-2</c:v>
+                  <c:v>0.0368096373331781</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.76806330252571E-2</c:v>
+                  <c:v>0.0376806330252571</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.8044277361027702E-2</c:v>
+                  <c:v>0.0380442773610277</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.8531563410135596E-2</c:v>
+                  <c:v>0.0685315634101356</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.9205526481704903E-2</c:v>
+                  <c:v>0.0392055264817049</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.5212904862602099E-2</c:v>
+                  <c:v>0.0452129048626021</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.0969770314585E-2</c:v>
+                  <c:v>0.040969770314585</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.00739554451984E-2</c:v>
+                  <c:v>0.0400739554451984</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.8164518003081198E-2</c:v>
+                  <c:v>0.0481645180030812</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.0158429673337499E-2</c:v>
+                  <c:v>0.0401584296733375</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.3689121884987701E-2</c:v>
+                  <c:v>0.0536891218849877</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.34417853173807E-2</c:v>
+                  <c:v>0.0334417853173807</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.3590510923625501E-2</c:v>
+                  <c:v>0.0235905109236255</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.8545049918811302E-2</c:v>
+                  <c:v>0.0685450499188113</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.111776701524605</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.17330876961543E-2</c:v>
+                  <c:v>0.0617330876961543</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.84747198257888E-2</c:v>
+                  <c:v>0.0584747198257888</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.1998557769899702E-2</c:v>
+                  <c:v>0.0619985577698997</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.2816575206249599E-2</c:v>
+                  <c:v>0.0928165752062496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-06CF-4E7B-91B2-25C5E73A6982}"/>
             </c:ext>
@@ -1255,157 +1230,157 @@
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$51</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>41305.000000057902</c:v>
+                  <c:v>41305.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41333.000000057902</c:v>
+                  <c:v>41333.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41362.000000057902</c:v>
+                  <c:v>41362.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41390.000000057902</c:v>
+                  <c:v>41390.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41425.000000057902</c:v>
+                  <c:v>41425.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41453.000000057902</c:v>
+                  <c:v>41453.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41486.000000057902</c:v>
+                  <c:v>41486.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41516.000000057902</c:v>
+                  <c:v>41516.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41547.000000057902</c:v>
+                  <c:v>41547.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41578.000000057902</c:v>
+                  <c:v>41578.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41607.000000057902</c:v>
+                  <c:v>41607.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41639.000000057902</c:v>
+                  <c:v>41639.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41669.000000057902</c:v>
+                  <c:v>41669.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41698.000000057902</c:v>
+                  <c:v>41698.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41729.000000057902</c:v>
+                  <c:v>41729.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41759.000000057902</c:v>
+                  <c:v>41759.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41789.000000057902</c:v>
+                  <c:v>41789.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41820.000000057902</c:v>
+                  <c:v>41820.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41851.000000057902</c:v>
+                  <c:v>41851.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41880.000000057902</c:v>
+                  <c:v>41880.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41912.000000057902</c:v>
+                  <c:v>41912.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41943.000000057902</c:v>
+                  <c:v>41943.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41971.000000057902</c:v>
+                  <c:v>41971.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42004.000000057902</c:v>
+                  <c:v>42004.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42034.000000057902</c:v>
+                  <c:v>42034.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42062.000000057902</c:v>
+                  <c:v>42062.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42094.000000057902</c:v>
+                  <c:v>42094.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42124.000000057902</c:v>
+                  <c:v>42124.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42153.000000057902</c:v>
+                  <c:v>42153.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42185.000000057902</c:v>
+                  <c:v>42185.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42216.000000057902</c:v>
+                  <c:v>42216.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42247.000000057902</c:v>
+                  <c:v>42247.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42277.000000057902</c:v>
+                  <c:v>42277.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42307.000000057902</c:v>
+                  <c:v>42307.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42338.000000057902</c:v>
+                  <c:v>42338.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42369.000000057902</c:v>
+                  <c:v>42369.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42398.000000057902</c:v>
+                  <c:v>42398.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42429.000000057902</c:v>
+                  <c:v>42429.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42460.000000057902</c:v>
+                  <c:v>42460.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42489.000000057902</c:v>
+                  <c:v>42489.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42521.000000057902</c:v>
+                  <c:v>42521.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42551.000000057902</c:v>
+                  <c:v>42551.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42580.000000057902</c:v>
+                  <c:v>42580.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42613.000000057902</c:v>
+                  <c:v>42613.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42643.000000057902</c:v>
+                  <c:v>42643.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42674.000000057902</c:v>
+                  <c:v>42674.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42704.000000057902</c:v>
+                  <c:v>42704.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42734.000000057902</c:v>
+                  <c:v>42734.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42761.000000057902</c:v>
+                  <c:v>42761.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42794.000000057902</c:v>
+                  <c:v>42794.0000000579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1417,159 +1392,159 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>4.5317586167085201E-19</c:v>
+                  <c:v>4.53175861670852E-19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0409543909077901E-2</c:v>
+                  <c:v>0.0704095439090779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6093113927304895E-2</c:v>
+                  <c:v>0.0660931139273049</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1072461508527298E-3</c:v>
+                  <c:v>0.00510724615085273</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9302782576211297E-2</c:v>
+                  <c:v>0.0493027825762113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5125724554370001E-3</c:v>
+                  <c:v>0.007512572455437</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24949136140571601</c:v>
+                  <c:v>0.249491361405716</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8667257722117107E-2</c:v>
+                  <c:v>0.0786672577221171</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4133059566200402E-2</c:v>
+                  <c:v>0.0841330595662004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.17435020461939801</c:v>
+                  <c:v>0.174350204619398</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6700313346302599E-17</c:v>
+                  <c:v>1.67003133463026E-17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0145831617496301E-17</c:v>
+                  <c:v>2.01458316174963E-17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.24313132704132001</c:v>
+                  <c:v>0.24313132704132</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.2396540108919501E-17</c:v>
+                  <c:v>4.23965401089195E-17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.18141487604353301</c:v>
+                  <c:v>0.181414876043533</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.27076855297593999</c:v>
+                  <c:v>0.27076855297594</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.17358371166647299</c:v>
+                  <c:v>0.173583711666473</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.28091300151642601</c:v>
+                  <c:v>0.280913001516426</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.5629451942736399E-17</c:v>
+                  <c:v>1.56294519427364E-17</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3098943348046104E-18</c:v>
+                  <c:v>7.30989433480461E-18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>3.93209634774391E-17</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.4827574151645897E-17</c:v>
+                  <c:v>4.48275741516459E-17</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.2437973748050698E-17</c:v>
+                  <c:v>3.24379737480507E-17</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.6805133673525299E-18</c:v>
+                  <c:v>1.68051336735253E-18</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1.45350853748838E-18</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.8389440161312202E-18</c:v>
+                  <c:v>6.83894401613122E-18</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1.56002293060561E-18</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.6340396486619802E-18</c:v>
+                  <c:v>5.63403964866198E-18</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.5409791178724406E-18</c:v>
+                  <c:v>9.54097911787244E-18</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.1548518178149401E-17</c:v>
+                  <c:v>2.15485181781494E-17</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.12094044226003101</c:v>
+                  <c:v>0.120940442260031</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.4012537249609101E-18</c:v>
+                  <c:v>3.40125372496091E-18</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.4909686863422996E-18</c:v>
+                  <c:v>4.4909686863423E-18</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.5040236926195495E-2</c:v>
+                  <c:v>0.0950402369261955</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.3981196802663801E-17</c:v>
+                  <c:v>2.39811968026638E-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-06CF-4E7B-91B2-25C5E73A6982}"/>
             </c:ext>
@@ -1602,157 +1577,157 @@
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$51</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>41305.000000057902</c:v>
+                  <c:v>41305.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41333.000000057902</c:v>
+                  <c:v>41333.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41362.000000057902</c:v>
+                  <c:v>41362.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41390.000000057902</c:v>
+                  <c:v>41390.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41425.000000057902</c:v>
+                  <c:v>41425.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41453.000000057902</c:v>
+                  <c:v>41453.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41486.000000057902</c:v>
+                  <c:v>41486.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41516.000000057902</c:v>
+                  <c:v>41516.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41547.000000057902</c:v>
+                  <c:v>41547.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41578.000000057902</c:v>
+                  <c:v>41578.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41607.000000057902</c:v>
+                  <c:v>41607.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41639.000000057902</c:v>
+                  <c:v>41639.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41669.000000057902</c:v>
+                  <c:v>41669.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41698.000000057902</c:v>
+                  <c:v>41698.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41729.000000057902</c:v>
+                  <c:v>41729.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41759.000000057902</c:v>
+                  <c:v>41759.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41789.000000057902</c:v>
+                  <c:v>41789.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41820.000000057902</c:v>
+                  <c:v>41820.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41851.000000057902</c:v>
+                  <c:v>41851.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41880.000000057902</c:v>
+                  <c:v>41880.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41912.000000057902</c:v>
+                  <c:v>41912.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41943.000000057902</c:v>
+                  <c:v>41943.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41971.000000057902</c:v>
+                  <c:v>41971.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42004.000000057902</c:v>
+                  <c:v>42004.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42034.000000057902</c:v>
+                  <c:v>42034.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42062.000000057902</c:v>
+                  <c:v>42062.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42094.000000057902</c:v>
+                  <c:v>42094.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42124.000000057902</c:v>
+                  <c:v>42124.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42153.000000057902</c:v>
+                  <c:v>42153.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42185.000000057902</c:v>
+                  <c:v>42185.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42216.000000057902</c:v>
+                  <c:v>42216.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42247.000000057902</c:v>
+                  <c:v>42247.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42277.000000057902</c:v>
+                  <c:v>42277.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42307.000000057902</c:v>
+                  <c:v>42307.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42338.000000057902</c:v>
+                  <c:v>42338.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42369.000000057902</c:v>
+                  <c:v>42369.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42398.000000057902</c:v>
+                  <c:v>42398.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42429.000000057902</c:v>
+                  <c:v>42429.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42460.000000057902</c:v>
+                  <c:v>42460.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42489.000000057902</c:v>
+                  <c:v>42489.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42521.000000057902</c:v>
+                  <c:v>42521.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42551.000000057902</c:v>
+                  <c:v>42551.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42580.000000057902</c:v>
+                  <c:v>42580.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42613.000000057902</c:v>
+                  <c:v>42613.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42643.000000057902</c:v>
+                  <c:v>42643.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42674.000000057902</c:v>
+                  <c:v>42674.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42704.000000057902</c:v>
+                  <c:v>42704.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42734.000000057902</c:v>
+                  <c:v>42734.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42761.000000057902</c:v>
+                  <c:v>42761.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42794.000000057902</c:v>
+                  <c:v>42794.0000000579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1764,34 +1739,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>6.6453824814181398E-2</c:v>
+                  <c:v>0.0664538248141814</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9867950281481498E-2</c:v>
+                  <c:v>0.0798679502814815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2669761887817902E-2</c:v>
+                  <c:v>0.0726697618878179</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8322662920957095E-2</c:v>
+                  <c:v>0.0683226629209571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4578089460593502E-2</c:v>
+                  <c:v>0.0245780894605935</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5104372803000105E-2</c:v>
+                  <c:v>0.0651043728030001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.100526157706601</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.44123889342421E-2</c:v>
+                  <c:v>0.0944123889342421</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.9175194510872599E-2</c:v>
+                  <c:v>0.0791751945108726</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10443805884176501</c:v>
+                  <c:v>0.104438058841765</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.156026202533567</c:v>
@@ -1800,7 +1775,7 @@
                   <c:v>0.118187357356106</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14125091247798299</c:v>
+                  <c:v>0.141250912477983</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.111146984015282</c:v>
@@ -1812,22 +1787,22 @@
                   <c:v>0.117386000363098</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.7386867180734606E-2</c:v>
+                  <c:v>0.0773868671807346</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.9370851798267897E-2</c:v>
+                  <c:v>0.0893708517982679</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.7251163922989797E-2</c:v>
+                  <c:v>0.0972511639229898</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.10211508722504101</c:v>
+                  <c:v>0.102115087225041</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.6916285902437995E-2</c:v>
+                  <c:v>0.086916285902438</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.5767969976060796E-2</c:v>
+                  <c:v>0.0957679699760608</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.116112576357179</c:v>
@@ -1836,25 +1811,25 @@
                   <c:v>0.115700582517008</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.5646333749391604E-2</c:v>
+                  <c:v>0.0956463337493916</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.126775899481613</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5824207954028305E-2</c:v>
+                  <c:v>0.0758242079540283</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.154481916873105</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.6346530321848599E-2</c:v>
+                  <c:v>0.0763465303218486</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.13900052297314699</c:v>
+                  <c:v>0.139000522973147</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.13800745504550299</c:v>
+                  <c:v>0.138007455045503</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.142718716568145</c:v>
@@ -1866,37 +1841,37 @@
                   <c:v>0.118179662259183</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.13925250670755299</c:v>
+                  <c:v>0.139252506707553</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.136038182681087</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.15497241847742699</c:v>
+                  <c:v>0.154972418477427</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.16257569946463199</c:v>
+                  <c:v>0.162575699464632</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.13615929925446499</c:v>
+                  <c:v>0.136159299254465</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.13874060337132599</c:v>
+                  <c:v>0.138740603371326</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.152103211055715</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.12311776458886201</c:v>
+                  <c:v>0.123117764588862</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.106742050567362</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.12584268104273899</c:v>
+                  <c:v>0.125842681042739</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.18916851157719999</c:v>
+                  <c:v>0.1891685115772</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.181077586097489</c:v>
@@ -1905,10 +1880,10 @@
                   <c:v>0.16028399652587</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.14766955648595201</c:v>
+                  <c:v>0.147669556485952</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.19795439579317201</c:v>
+                  <c:v>0.197954395793172</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.210300812815959</c:v>
@@ -1916,7 +1891,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-06CF-4E7B-91B2-25C5E73A6982}"/>
             </c:ext>
@@ -1949,157 +1924,157 @@
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$51</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>41305.000000057902</c:v>
+                  <c:v>41305.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41333.000000057902</c:v>
+                  <c:v>41333.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41362.000000057902</c:v>
+                  <c:v>41362.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41390.000000057902</c:v>
+                  <c:v>41390.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41425.000000057902</c:v>
+                  <c:v>41425.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41453.000000057902</c:v>
+                  <c:v>41453.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41486.000000057902</c:v>
+                  <c:v>41486.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41516.000000057902</c:v>
+                  <c:v>41516.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41547.000000057902</c:v>
+                  <c:v>41547.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41578.000000057902</c:v>
+                  <c:v>41578.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41607.000000057902</c:v>
+                  <c:v>41607.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41639.000000057902</c:v>
+                  <c:v>41639.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41669.000000057902</c:v>
+                  <c:v>41669.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41698.000000057902</c:v>
+                  <c:v>41698.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41729.000000057902</c:v>
+                  <c:v>41729.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41759.000000057902</c:v>
+                  <c:v>41759.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41789.000000057902</c:v>
+                  <c:v>41789.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41820.000000057902</c:v>
+                  <c:v>41820.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41851.000000057902</c:v>
+                  <c:v>41851.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41880.000000057902</c:v>
+                  <c:v>41880.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41912.000000057902</c:v>
+                  <c:v>41912.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41943.000000057902</c:v>
+                  <c:v>41943.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41971.000000057902</c:v>
+                  <c:v>41971.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42004.000000057902</c:v>
+                  <c:v>42004.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42034.000000057902</c:v>
+                  <c:v>42034.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42062.000000057902</c:v>
+                  <c:v>42062.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42094.000000057902</c:v>
+                  <c:v>42094.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42124.000000057902</c:v>
+                  <c:v>42124.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42153.000000057902</c:v>
+                  <c:v>42153.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42185.000000057902</c:v>
+                  <c:v>42185.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42216.000000057902</c:v>
+                  <c:v>42216.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42247.000000057902</c:v>
+                  <c:v>42247.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42277.000000057902</c:v>
+                  <c:v>42277.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42307.000000057902</c:v>
+                  <c:v>42307.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42338.000000057902</c:v>
+                  <c:v>42338.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42369.000000057902</c:v>
+                  <c:v>42369.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42398.000000057902</c:v>
+                  <c:v>42398.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42429.000000057902</c:v>
+                  <c:v>42429.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42460.000000057902</c:v>
+                  <c:v>42460.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42489.000000057902</c:v>
+                  <c:v>42489.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42521.000000057902</c:v>
+                  <c:v>42521.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42551.000000057902</c:v>
+                  <c:v>42551.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42580.000000057902</c:v>
+                  <c:v>42580.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42613.000000057902</c:v>
+                  <c:v>42613.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42643.000000057902</c:v>
+                  <c:v>42643.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42674.000000057902</c:v>
+                  <c:v>42674.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42704.000000057902</c:v>
+                  <c:v>42704.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42734.000000057902</c:v>
+                  <c:v>42734.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42761.000000057902</c:v>
+                  <c:v>42761.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42794.000000057902</c:v>
+                  <c:v>42794.0000000579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2111,148 +2086,148 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>4.5245427850236601E-2</c:v>
+                  <c:v>0.0452454278502366</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5475415104521001E-2</c:v>
+                  <c:v>0.045475415104521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17955321101005E-2</c:v>
+                  <c:v>0.0317955321101005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.54954327494349E-2</c:v>
+                  <c:v>0.0554954327494349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4046919873874502E-2</c:v>
+                  <c:v>0.0340469198738745</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5498186982075502E-2</c:v>
+                  <c:v>0.0554981869820755</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3823283590196998E-17</c:v>
+                  <c:v>4.3823283590197E-17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7578455428024099E-2</c:v>
+                  <c:v>0.0375784554280241</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7933837932545799E-2</c:v>
+                  <c:v>0.0179338379325458</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.116609232763902</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15191472405685899</c:v>
+                  <c:v>0.151914724056859</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20833129523781899</c:v>
+                  <c:v>0.208331295237819</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.27658029859132</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.31358770470667102</c:v>
+                  <c:v>0.313587704706671</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.121187499050848</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.18971899321258201</c:v>
+                  <c:v>0.189718993212582</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.16120725837841299</c:v>
+                  <c:v>0.161207258378413</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.24061912908395E-2</c:v>
+                  <c:v>0.0124061912908395</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.6123807693409298E-2</c:v>
+                  <c:v>0.0461238076934093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.4968274087352103E-17</c:v>
+                  <c:v>6.49682740873521E-17</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.1992175988115807E-2</c:v>
+                  <c:v>0.0919921759881158</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.8121370287982406E-2</c:v>
+                  <c:v>0.0881213702879824</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.4240529667476099E-17</c:v>
+                  <c:v>1.42405296674761E-17</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2685034421685293E-2</c:v>
+                  <c:v>0.0726850344216853</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.0121403984151101E-2</c:v>
+                  <c:v>0.0401214039841511</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.7499195545391402E-2</c:v>
+                  <c:v>0.0574991955453914</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.6230165097914199E-2</c:v>
+                  <c:v>0.0362301650979142</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.8438455531276305E-2</c:v>
+                  <c:v>0.0784384555312763</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2.17619704808575E-17</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.7101326927915803E-2</c:v>
+                  <c:v>0.0671013269279158</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.5346561062784098E-2</c:v>
+                  <c:v>0.0453465610627841</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.4581649763704101E-2</c:v>
+                  <c:v>0.0445816497637041</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.3797504214422E-2</c:v>
+                  <c:v>0.033797504214422</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.48573360245067E-2</c:v>
+                  <c:v>0.0448573360245067</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.5185889411896201E-17</c:v>
+                  <c:v>2.51858894118962E-17</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.12555842942775E-2</c:v>
+                  <c:v>0.0612555842942775</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.2587648284731197E-2</c:v>
+                  <c:v>0.0825876482847312</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.7785203846953598E-2</c:v>
+                  <c:v>0.0577852038469536</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.2426876391355098E-2</c:v>
+                  <c:v>0.0524268763913551</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.3948922059684201E-2</c:v>
+                  <c:v>0.0339489220596842</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.1156469926827803E-2</c:v>
+                  <c:v>0.0411564699268278</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.5668334315166502E-2</c:v>
+                  <c:v>0.0456683343151665</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.3548316707301405E-2</c:v>
+                  <c:v>0.0635483167073014</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.70181341183163E-2</c:v>
+                  <c:v>0.0270181341183163</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.01807662323989E-2</c:v>
+                  <c:v>0.0101807662323989</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>2.95684347117248E-17</c:v>
@@ -2263,7 +2238,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-06CF-4E7B-91B2-25C5E73A6982}"/>
             </c:ext>
@@ -2298,157 +2273,157 @@
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$51</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>41305.000000057902</c:v>
+                  <c:v>41305.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41333.000000057902</c:v>
+                  <c:v>41333.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41362.000000057902</c:v>
+                  <c:v>41362.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41390.000000057902</c:v>
+                  <c:v>41390.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41425.000000057902</c:v>
+                  <c:v>41425.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41453.000000057902</c:v>
+                  <c:v>41453.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41486.000000057902</c:v>
+                  <c:v>41486.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41516.000000057902</c:v>
+                  <c:v>41516.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41547.000000057902</c:v>
+                  <c:v>41547.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41578.000000057902</c:v>
+                  <c:v>41578.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41607.000000057902</c:v>
+                  <c:v>41607.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41639.000000057902</c:v>
+                  <c:v>41639.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41669.000000057902</c:v>
+                  <c:v>41669.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41698.000000057902</c:v>
+                  <c:v>41698.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41729.000000057902</c:v>
+                  <c:v>41729.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41759.000000057902</c:v>
+                  <c:v>41759.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41789.000000057902</c:v>
+                  <c:v>41789.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41820.000000057902</c:v>
+                  <c:v>41820.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41851.000000057902</c:v>
+                  <c:v>41851.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41880.000000057902</c:v>
+                  <c:v>41880.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41912.000000057902</c:v>
+                  <c:v>41912.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41943.000000057902</c:v>
+                  <c:v>41943.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41971.000000057902</c:v>
+                  <c:v>41971.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42004.000000057902</c:v>
+                  <c:v>42004.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42034.000000057902</c:v>
+                  <c:v>42034.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42062.000000057902</c:v>
+                  <c:v>42062.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42094.000000057902</c:v>
+                  <c:v>42094.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42124.000000057902</c:v>
+                  <c:v>42124.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42153.000000057902</c:v>
+                  <c:v>42153.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42185.000000057902</c:v>
+                  <c:v>42185.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42216.000000057902</c:v>
+                  <c:v>42216.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42247.000000057902</c:v>
+                  <c:v>42247.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42277.000000057902</c:v>
+                  <c:v>42277.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42307.000000057902</c:v>
+                  <c:v>42307.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42338.000000057902</c:v>
+                  <c:v>42338.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42369.000000057902</c:v>
+                  <c:v>42369.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42398.000000057902</c:v>
+                  <c:v>42398.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42429.000000057902</c:v>
+                  <c:v>42429.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42460.000000057902</c:v>
+                  <c:v>42460.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42489.000000057902</c:v>
+                  <c:v>42489.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42521.000000057902</c:v>
+                  <c:v>42521.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42551.000000057902</c:v>
+                  <c:v>42551.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42580.000000057902</c:v>
+                  <c:v>42580.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42613.000000057902</c:v>
+                  <c:v>42613.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42643.000000057902</c:v>
+                  <c:v>42643.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42674.000000057902</c:v>
+                  <c:v>42674.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42704.000000057902</c:v>
+                  <c:v>42704.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42734.000000057902</c:v>
+                  <c:v>42734.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42761.000000057902</c:v>
+                  <c:v>42761.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42794.000000057902</c:v>
+                  <c:v>42794.0000000579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2460,159 +2435,159 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>6.1138663143873499E-2</c:v>
+                  <c:v>0.0611386631438735</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6830922569001803E-2</c:v>
+                  <c:v>0.0568309225690018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2702099287804097E-2</c:v>
+                  <c:v>0.0627020992878041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1381124471622001E-2</c:v>
+                  <c:v>0.061381124471622</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4035570110510193E-2</c:v>
+                  <c:v>0.0740355701105102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.17163783419663E-2</c:v>
+                  <c:v>0.0717163783419663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6108801182582597E-2</c:v>
+                  <c:v>0.0661088011825826</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5451674486534303E-2</c:v>
+                  <c:v>0.0454516744865343</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3163767501611598E-2</c:v>
+                  <c:v>0.0431637675016116</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2565809430717398E-2</c:v>
+                  <c:v>0.0225658094307174</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.0010070355123197E-2</c:v>
+                  <c:v>0.0800100703551232</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.101029005039748</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.6756367204147302E-2</c:v>
+                  <c:v>0.0767563672041473</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.10885851492566501</c:v>
+                  <c:v>0.108858514925665</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.11818638904649301</c:v>
+                  <c:v>0.118186389046493</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.123364010853035</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.6911358115589402E-2</c:v>
+                  <c:v>0.0969113581155894</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.7142549293245294E-2</c:v>
+                  <c:v>0.0771425492932453</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.12969881408338799</c:v>
+                  <c:v>0.129698814083388</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0707605529410603E-2</c:v>
+                  <c:v>0.0607076055294106</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.11126669949243601</c:v>
+                  <c:v>0.111266699492436</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.13225848840735099</c:v>
+                  <c:v>0.132258488407351</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.6668744831734502E-2</c:v>
+                  <c:v>0.0966687448317345</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.7077596885326495E-2</c:v>
+                  <c:v>0.0970775968853265</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.105436972762875</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.12254501231939199</c:v>
+                  <c:v>0.122545012319392</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.7347644251984403E-2</c:v>
+                  <c:v>0.0973476442519844</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.112578451414982</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.63765018133477E-2</c:v>
+                  <c:v>0.0163765018133477</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.113845047270556</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.11082352353564601</c:v>
+                  <c:v>0.110823523535646</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.1055864444132</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.13039663151005301</c:v>
+                  <c:v>0.130396631510053</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.154056318896579</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.18424579330170601</c:v>
+                  <c:v>0.184245793301706</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.16733497217899501</c:v>
+                  <c:v>0.167334972178995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.20043472739200399</c:v>
+                  <c:v>0.200434727392004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.17327097165442901</c:v>
+                  <c:v>0.173270971654429</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.206541747344516</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.21348744798351199</c:v>
+                  <c:v>0.213487447983512</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.22906903253487701</c:v>
+                  <c:v>0.229069032534877</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.150831440192852</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.21159642521404701</c:v>
+                  <c:v>0.211596425214047</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.28220339537070299</c:v>
+                  <c:v>0.282203395370703</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.26139548775402099</c:v>
+                  <c:v>0.261395487754021</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.245315256488328</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.25436425983426703</c:v>
+                  <c:v>0.254364259834267</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.23091770545023599</c:v>
+                  <c:v>0.230917705450236</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.26796582387883</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.31757886175672101</c:v>
+                  <c:v>0.317578861756721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-06CF-4E7B-91B2-25C5E73A6982}"/>
             </c:ext>
@@ -2647,157 +2622,157 @@
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$51</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>41305.000000057902</c:v>
+                  <c:v>41305.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41333.000000057902</c:v>
+                  <c:v>41333.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41362.000000057902</c:v>
+                  <c:v>41362.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41390.000000057902</c:v>
+                  <c:v>41390.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41425.000000057902</c:v>
+                  <c:v>41425.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41453.000000057902</c:v>
+                  <c:v>41453.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41486.000000057902</c:v>
+                  <c:v>41486.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41516.000000057902</c:v>
+                  <c:v>41516.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41547.000000057902</c:v>
+                  <c:v>41547.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41578.000000057902</c:v>
+                  <c:v>41578.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41607.000000057902</c:v>
+                  <c:v>41607.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41639.000000057902</c:v>
+                  <c:v>41639.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41669.000000057902</c:v>
+                  <c:v>41669.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41698.000000057902</c:v>
+                  <c:v>41698.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41729.000000057902</c:v>
+                  <c:v>41729.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41759.000000057902</c:v>
+                  <c:v>41759.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41789.000000057902</c:v>
+                  <c:v>41789.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41820.000000057902</c:v>
+                  <c:v>41820.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41851.000000057902</c:v>
+                  <c:v>41851.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41880.000000057902</c:v>
+                  <c:v>41880.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41912.000000057902</c:v>
+                  <c:v>41912.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41943.000000057902</c:v>
+                  <c:v>41943.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41971.000000057902</c:v>
+                  <c:v>41971.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42004.000000057902</c:v>
+                  <c:v>42004.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42034.000000057902</c:v>
+                  <c:v>42034.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42062.000000057902</c:v>
+                  <c:v>42062.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42094.000000057902</c:v>
+                  <c:v>42094.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42124.000000057902</c:v>
+                  <c:v>42124.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42153.000000057902</c:v>
+                  <c:v>42153.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42185.000000057902</c:v>
+                  <c:v>42185.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42216.000000057902</c:v>
+                  <c:v>42216.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42247.000000057902</c:v>
+                  <c:v>42247.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42277.000000057902</c:v>
+                  <c:v>42277.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42307.000000057902</c:v>
+                  <c:v>42307.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42338.000000057902</c:v>
+                  <c:v>42338.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42369.000000057902</c:v>
+                  <c:v>42369.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42398.000000057902</c:v>
+                  <c:v>42398.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42429.000000057902</c:v>
+                  <c:v>42429.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42460.000000057902</c:v>
+                  <c:v>42460.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42489.000000057902</c:v>
+                  <c:v>42489.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42521.000000057902</c:v>
+                  <c:v>42521.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42551.000000057902</c:v>
+                  <c:v>42551.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42580.000000057902</c:v>
+                  <c:v>42580.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42613.000000057902</c:v>
+                  <c:v>42613.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42643.000000057902</c:v>
+                  <c:v>42643.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42674.000000057902</c:v>
+                  <c:v>42674.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42704.000000057902</c:v>
+                  <c:v>42704.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42734.000000057902</c:v>
+                  <c:v>42734.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42761.000000057902</c:v>
+                  <c:v>42761.0000000579</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42794.000000057902</c:v>
+                  <c:v>42794.0000000579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2809,142 +2784,142 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.53614580456362004</c:v>
+                  <c:v>0.53614580456362</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46356176232636198</c:v>
+                  <c:v>0.463561762326362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51388872450343903</c:v>
+                  <c:v>0.513888724503439</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54030207757914595</c:v>
+                  <c:v>0.540302077579146</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59297751658954001</c:v>
+                  <c:v>0.59297751658954</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54142898435521303</c:v>
+                  <c:v>0.541428984355213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42140919530111498</c:v>
+                  <c:v>0.421409195301115</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.38122045436569801</c:v>
+                  <c:v>0.381220454365698</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.48602217296807998</c:v>
+                  <c:v>0.48602217296808</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.293354264841516</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1731746325769003E-2</c:v>
+                  <c:v>0.081731746325769</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.9749704099318395E-17</c:v>
+                  <c:v>5.97497040993184E-17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7543817378815301E-17</c:v>
+                  <c:v>2.75438173788153E-17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.12407742292780399</c:v>
+                  <c:v>0.124077422927804</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.40107248003559598</c:v>
+                  <c:v>0.401072480035596</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3624528999961403E-2</c:v>
+                  <c:v>0.0536245289999614</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.39666118566931102</c:v>
+                  <c:v>0.396661185669311</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.33929274119518099</c:v>
+                  <c:v>0.339292741195181</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.193565427748525</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.8091426514447197E-19</c:v>
+                  <c:v>8.80914265144472E-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.39232366431911297</c:v>
+                  <c:v>0.392323664319113</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.48693801077736598</c:v>
+                  <c:v>0.486938010777366</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.52853543809236703</c:v>
+                  <c:v>0.528535438092367</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.53561655397908803</c:v>
+                  <c:v>0.535616553979088</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.45361048049522401</c:v>
+                  <c:v>0.453610480495224</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.27653236063384901</c:v>
+                  <c:v>0.276532360633849</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.38498996721973699</c:v>
+                  <c:v>0.384989967219737</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.44929514741934901</c:v>
+                  <c:v>0.449295147419349</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.46481813941093097</c:v>
+                  <c:v>0.464818139410931</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.47381793183985199</c:v>
+                  <c:v>0.473817931839852</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.46307763798656798</c:v>
+                  <c:v>0.463077637986568</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.7486660089843301E-2</c:v>
+                  <c:v>0.0174866600898433</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.37958036887159402</c:v>
+                  <c:v>0.379580368871594</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.25698326797724003</c:v>
+                  <c:v>0.25698326797724</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.34693334368489998</c:v>
+                  <c:v>0.3469333436849</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.351505102126905</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.31289642284817498</c:v>
+                  <c:v>0.312896422848175</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.32631817778484101</c:v>
+                  <c:v>0.326318177784841</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.53843833527343798</c:v>
+                  <c:v>0.538438335273438</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.38801294826080401</c:v>
+                  <c:v>0.388012948260804</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.27460407947787402</c:v>
+                  <c:v>0.274604079477874</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.24417833014599499</c:v>
+                  <c:v>0.244178330145995</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.32789521325617599</c:v>
+                  <c:v>0.327895213256176</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.230759055528371</c:v>
@@ -2953,15 +2928,15 @@
                   <c:v>0.328849079582196</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.24337016650371801</c:v>
+                  <c:v>0.243370166503718</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.9702057328419302E-17</c:v>
+                  <c:v>2.97020573284193E-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-06CF-4E7B-91B2-25C5E73A6982}"/>
             </c:ext>
@@ -2975,17 +2950,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1981104848"/>
-        <c:axId val="305980208"/>
+        <c:axId val="109617632"/>
+        <c:axId val="184054448"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="1981104848"/>
+        <c:axId val="109617632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd\ hh:mm:ss" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3022,16 +2997,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305980208"/>
+        <c:crossAx val="184054448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="305980208"/>
+        <c:axId val="184054448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3080,7 +3056,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1981104848"/>
+        <c:crossAx val="109617632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3133,12 +3109,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3758,7 +3729,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3800,12 +3771,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -3835,12 +3806,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -4046,13 +4017,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" topLeftCell="G14" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4078,8 +4052,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>41305.000000057902</v>
       </c>
       <c r="B2">
@@ -4107,8 +4081,8 @@
         <v>0.53614580456362004</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>41333.000000057902</v>
       </c>
       <c r="B3">
@@ -4136,8 +4110,8 @@
         <v>0.46356176232636198</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>41362.000000057902</v>
       </c>
       <c r="B4">
@@ -4165,8 +4139,8 @@
         <v>0.51388872450343903</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>41390.000000057902</v>
       </c>
       <c r="B5">
@@ -4194,8 +4168,8 @@
         <v>0.54030207757914595</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>41425.000000057902</v>
       </c>
       <c r="B6">
@@ -4223,8 +4197,8 @@
         <v>0.59297751658954001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>41453.000000057902</v>
       </c>
       <c r="B7">
@@ -4252,8 +4226,8 @@
         <v>0.54142898435521303</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>41486.000000057902</v>
       </c>
       <c r="B8">
@@ -4281,8 +4255,8 @@
         <v>0.42140919530111498</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>41516.000000057902</v>
       </c>
       <c r="B9">
@@ -4310,8 +4284,8 @@
         <v>0.38122045436569801</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>41547.000000057902</v>
       </c>
       <c r="B10">
@@ -4339,8 +4313,8 @@
         <v>0.48602217296807998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>41578.000000057902</v>
       </c>
       <c r="B11">
@@ -4368,8 +4342,8 @@
         <v>0.293354264841516</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>41607.000000057902</v>
       </c>
       <c r="B12">
@@ -4397,8 +4371,8 @@
         <v>8.1731746325769003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>41639.000000057902</v>
       </c>
       <c r="B13">
@@ -4426,8 +4400,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>41669.000000057902</v>
       </c>
       <c r="B14">
@@ -4455,8 +4429,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>41698.000000057902</v>
       </c>
       <c r="B15">
@@ -4484,8 +4458,8 @@
         <v>5.9749704099318395E-17</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>41729.000000057902</v>
       </c>
       <c r="B16">
@@ -4513,8 +4487,8 @@
         <v>2.7543817378815301E-17</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>41759.000000057902</v>
       </c>
       <c r="B17">
@@ -4542,8 +4516,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>41789.000000057902</v>
       </c>
       <c r="B18">
@@ -4571,8 +4545,8 @@
         <v>0.12407742292780399</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>41820.000000057902</v>
       </c>
       <c r="B19">
@@ -4600,8 +4574,8 @@
         <v>0.40107248003559598</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>41851.000000057902</v>
       </c>
       <c r="B20">
@@ -4629,8 +4603,8 @@
         <v>5.3624528999961403E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>41880.000000057902</v>
       </c>
       <c r="B21">
@@ -4658,8 +4632,8 @@
         <v>0.39666118566931102</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>41912.000000057902</v>
       </c>
       <c r="B22">
@@ -4687,8 +4661,8 @@
         <v>0.33929274119518099</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>41943.000000057902</v>
       </c>
       <c r="B23">
@@ -4716,8 +4690,8 @@
         <v>0.193565427748525</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>41971.000000057902</v>
       </c>
       <c r="B24">
@@ -4745,8 +4719,8 @@
         <v>8.8091426514447197E-19</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>42004.000000057902</v>
       </c>
       <c r="B25">
@@ -4774,8 +4748,8 @@
         <v>0.39232366431911297</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>42034.000000057902</v>
       </c>
       <c r="B26">
@@ -4803,8 +4777,8 @@
         <v>0.48693801077736598</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>42062.000000057902</v>
       </c>
       <c r="B27">
@@ -4832,8 +4806,8 @@
         <v>0.52853543809236703</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>42094.000000057902</v>
       </c>
       <c r="B28">
@@ -4861,8 +4835,8 @@
         <v>0.53561655397908803</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>42124.000000057902</v>
       </c>
       <c r="B29">
@@ -4890,8 +4864,8 @@
         <v>0.45361048049522401</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>42153.000000057902</v>
       </c>
       <c r="B30">
@@ -4919,8 +4893,8 @@
         <v>0.27653236063384901</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>42185.000000057902</v>
       </c>
       <c r="B31">
@@ -4948,8 +4922,8 @@
         <v>0.38498996721973699</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>42216.000000057902</v>
       </c>
       <c r="B32">
@@ -4977,8 +4951,8 @@
         <v>0.44929514741934901</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>42247.000000057902</v>
       </c>
       <c r="B33">
@@ -5006,8 +4980,8 @@
         <v>0.46481813941093097</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>42277.000000057902</v>
       </c>
       <c r="B34">
@@ -5035,8 +5009,8 @@
         <v>0.47381793183985199</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>42307.000000057902</v>
       </c>
       <c r="B35">
@@ -5064,8 +5038,8 @@
         <v>0.46307763798656798</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>42338.000000057902</v>
       </c>
       <c r="B36">
@@ -5093,8 +5067,8 @@
         <v>1.7486660089843301E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>42369.000000057902</v>
       </c>
       <c r="B37">
@@ -5122,8 +5096,8 @@
         <v>0.37958036887159402</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>42398.000000057902</v>
       </c>
       <c r="B38">
@@ -5151,8 +5125,8 @@
         <v>0.25698326797724003</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>42429.000000057902</v>
       </c>
       <c r="B39">
@@ -5180,8 +5154,8 @@
         <v>0.34693334368489998</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>42460.000000057902</v>
       </c>
       <c r="B40">
@@ -5209,8 +5183,8 @@
         <v>0.351505102126905</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>42489.000000057902</v>
       </c>
       <c r="B41">
@@ -5238,8 +5212,8 @@
         <v>0.31289642284817498</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>42521.000000057902</v>
       </c>
       <c r="B42">
@@ -5267,8 +5241,8 @@
         <v>0.32631817778484101</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>42551.000000057902</v>
       </c>
       <c r="B43">
@@ -5296,8 +5270,8 @@
         <v>0.53843833527343798</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>42580.000000057902</v>
       </c>
       <c r="B44">
@@ -5325,8 +5299,8 @@
         <v>0.38801294826080401</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>42613.000000057902</v>
       </c>
       <c r="B45">
@@ -5354,8 +5328,8 @@
         <v>0.27460407947787402</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>42643.000000057902</v>
       </c>
       <c r="B46">
@@ -5383,8 +5357,8 @@
         <v>0.24417833014599499</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>42674.000000057902</v>
       </c>
       <c r="B47">
@@ -5412,8 +5386,8 @@
         <v>0.32789521325617599</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>42704.000000057902</v>
       </c>
       <c r="B48">
@@ -5441,8 +5415,8 @@
         <v>0.230759055528371</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>42734.000000057902</v>
       </c>
       <c r="B49">
@@ -5470,8 +5444,8 @@
         <v>0.328849079582196</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>42761.000000057902</v>
       </c>
       <c r="B50">
@@ -5499,8 +5473,8 @@
         <v>0.24337016650371801</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>42794.000000057902</v>
       </c>
       <c r="B51">
